--- a/Reports/accounts_export.xlsx
+++ b/Reports/accounts_export.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,187 +509,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C:\Python Automation\Keno-bi\accounts\Private &amp; Domestic\Homeserve\7480K37 - Homeserve master.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AVANT</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Avant Homes</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>New Build</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MARGIN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Joe</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Marsh</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>C:\Python Automation\Keno-bi\accounts\New Build\Avant Homes\AVANT - Avant Homes master.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>7130U53</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ph Jones</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Social Housing</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SLP</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Joe</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Marsh</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>C:\Python Automation\Keno-bi\accounts\Social Housing\Ph Jones\7130U53 - Ph Jones master.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>7777B77</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Testive Account</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Social Housing</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SLP</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Joe</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Marsh</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>GC</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>C:\Python Automation\Keno-bi\accounts\Social Housing\Testive Account\7777B77 - Testive Account master.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>8484844</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Askdj</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Social Housing</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SLP</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Joe</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Marsh</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>C:\Python Automation\Keno-bi\accounts\Social Housing\Askdj\8484844 - Askdj master.xlsx</t>
+          <t>C:\Python Automation\Keno-bi\accounts\Private &amp; Domestic\Homeserve\7480K37 - Homeserve Master.xlsx</t>
         </is>
       </c>
     </row>
